--- a/PES/Office salaries/Jan Salary Sheet New (2024).xlsx
+++ b/PES/Office salaries/Jan Salary Sheet New (2024).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office salaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E6AB9B-1D3B-432F-97A1-2814AD81378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CFD9F-6B57-41F0-93D4-4B25FD205759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salary Sheets" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="235">
   <si>
     <t>Name</t>
   </si>
@@ -1052,6 +1052,9 @@
   </si>
   <si>
     <t xml:space="preserve"> EY, ENGRO, DAWOOD, TRIFIT, Bank Al Habib</t>
+  </si>
+  <si>
+    <t>15000 deduct from sami salary</t>
   </si>
 </sst>
 </file>
@@ -3112,12 +3115,6 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3125,6 +3122,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3712,8 +3715,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="130" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="130" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
@@ -6030,7 +6033,7 @@
       </c>
       <c r="P48" s="190">
         <f>'Salary Record'!G347</f>
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="Q48" s="242">
         <f>'Salary Record'!K347</f>
@@ -8179,7 +8182,7 @@
       </c>
       <c r="P85" s="206">
         <f>SUM(P4:P83)</f>
-        <v>749422</v>
+        <v>734422</v>
       </c>
       <c r="Q85" s="205">
         <f>SUM(Q4+Q5++Q69+Q53+Q45+Q34+Q27+Q20+Q11+Q83)+20000</f>
@@ -9270,8 +9273,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC862"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A150" zoomScale="120" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="Q164" sqref="Q164"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D327" zoomScale="120" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="Y340" sqref="Y340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -24793,7 +24796,7 @@
       <c r="Y336" s="57"/>
       <c r="Z336" s="57"/>
     </row>
-    <row r="337" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="400" t="s">
         <v>38</v>
       </c>
@@ -24827,7 +24830,7 @@
       <c r="Y337" s="389"/>
       <c r="Z337" s="30"/>
     </row>
-    <row r="338" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="272"/>
       <c r="B338" s="270"/>
       <c r="C338" s="392" t="s">
@@ -24883,7 +24886,7 @@
       </c>
       <c r="Z338" s="34"/>
     </row>
-    <row r="339" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="272"/>
       <c r="B339" s="270"/>
       <c r="C339" s="270"/>
@@ -24931,12 +24934,15 @@
         <v>2000</v>
       </c>
       <c r="Y339" s="38">
-        <f>W339-X339</f>
-        <v>18000</v>
+        <f>W339-X339-15000</f>
+        <v>3000</v>
       </c>
       <c r="Z339" s="34"/>
-    </row>
-    <row r="340" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA339" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="272"/>
       <c r="B340" s="270" t="s">
         <v>0</v>
@@ -24968,23 +24974,23 @@
       <c r="T340" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="U340" s="63" t="str">
-        <f>IF($J$1="January","",Y339)</f>
-        <v/>
+      <c r="U340" s="63">
+        <f>Y339</f>
+        <v>3000</v>
       </c>
       <c r="V340" s="38"/>
-      <c r="W340" s="63" t="str">
+      <c r="W340" s="63">
         <f>IF(U340="","",U340+V340)</f>
-        <v/>
+        <v>3000</v>
       </c>
       <c r="X340" s="38"/>
-      <c r="Y340" s="63" t="str">
+      <c r="Y340" s="63">
         <f>IF(W340="","",W340-X340)</f>
-        <v/>
+        <v>3000</v>
       </c>
       <c r="Z340" s="40"/>
     </row>
-    <row r="341" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="272"/>
       <c r="B341" s="282" t="s">
         <v>39</v>
@@ -25017,10 +25023,7 @@
       <c r="T341" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="U341" s="63" t="str">
-        <f>IF($J$1="February","",Y340)</f>
-        <v/>
-      </c>
+      <c r="U341" s="63"/>
       <c r="V341" s="38"/>
       <c r="W341" s="63" t="str">
         <f t="shared" ref="W341:W344" si="80">IF(U341="","",U341+V341)</f>
@@ -25033,7 +25036,7 @@
       </c>
       <c r="Z341" s="40"/>
     </row>
-    <row r="342" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="272"/>
       <c r="B342" s="270"/>
       <c r="C342" s="270"/>
@@ -25076,7 +25079,7 @@
       </c>
       <c r="Z342" s="40"/>
     </row>
-    <row r="343" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="272"/>
       <c r="B343" s="393" t="s">
         <v>40</v>
@@ -25134,7 +25137,7 @@
       </c>
       <c r="Z343" s="40"/>
     </row>
-    <row r="344" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="272"/>
       <c r="B344" s="293"/>
       <c r="C344" s="293"/>
@@ -25189,7 +25192,7 @@
       </c>
       <c r="Z344" s="40"/>
     </row>
-    <row r="345" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="272"/>
       <c r="B345" s="287" t="s">
         <v>7</v>
@@ -25247,7 +25250,7 @@
       </c>
       <c r="Z345" s="40"/>
     </row>
-    <row r="346" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="272"/>
       <c r="B346" s="287" t="s">
         <v>6</v>
@@ -25305,7 +25308,7 @@
       </c>
       <c r="Z346" s="40"/>
     </row>
-    <row r="347" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="272"/>
       <c r="B347" s="302" t="s">
         <v>66</v>
@@ -25321,7 +25324,7 @@
       </c>
       <c r="G347" s="288">
         <f>IF($J$1="January",Y339,IF($J$1="February",Y340,IF($J$1="March",Y341,IF($J$1="April",Y342,IF($J$1="May",Y343,IF($J$1="June",Y344,IF($J$1="July",Y345,IF($J$1="August",Y346,IF($J$1="August",Y346,IF($J$1="September",Y347,IF($J$1="October",Y348,IF($J$1="November",Y349,IF($J$1="December",Y350)))))))))))))</f>
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="H347" s="270"/>
       <c r="I347" s="395" t="s">
@@ -25363,7 +25366,7 @@
       </c>
       <c r="Z347" s="40"/>
     </row>
-    <row r="348" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="272"/>
       <c r="B348" s="270"/>
       <c r="C348" s="270"/>
@@ -25406,7 +25409,7 @@
       </c>
       <c r="Z348" s="40"/>
     </row>
-    <row r="349" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="272"/>
       <c r="B349" s="268"/>
       <c r="C349" s="268"/>
@@ -25449,7 +25452,7 @@
       </c>
       <c r="Z349" s="40"/>
     </row>
-    <row r="350" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="298"/>
       <c r="B350" s="299"/>
       <c r="C350" s="299"/>
@@ -25491,7 +25494,7 @@
       </c>
       <c r="Z350" s="40"/>
     </row>
-    <row r="351" spans="1:26" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="301"/>
       <c r="B351" s="301"/>
       <c r="C351" s="301"/>
@@ -25518,7 +25521,7 @@
       <c r="Y351" s="57"/>
       <c r="Z351" s="57"/>
     </row>
-    <row r="352" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="400" t="s">
         <v>38</v>
       </c>
@@ -41261,11 +41264,11 @@
       <c r="B691" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="C691" s="408">
+      <c r="C691" s="411">
         <v>45208</v>
       </c>
-      <c r="D691" s="408"/>
-      <c r="E691" s="409"/>
+      <c r="D691" s="411"/>
+      <c r="E691" s="412"/>
       <c r="F691" s="395" t="s">
         <v>41</v>
       </c>
@@ -44653,20 +44656,20 @@
       <c r="Z763" s="57"/>
     </row>
     <row r="764" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="410" t="s">
+      <c r="A764" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B764" s="411"/>
-      <c r="C764" s="411"/>
-      <c r="D764" s="411"/>
-      <c r="E764" s="411"/>
-      <c r="F764" s="411"/>
-      <c r="G764" s="411"/>
-      <c r="H764" s="411"/>
-      <c r="I764" s="411"/>
-      <c r="J764" s="411"/>
-      <c r="K764" s="411"/>
-      <c r="L764" s="412"/>
+      <c r="B764" s="409"/>
+      <c r="C764" s="409"/>
+      <c r="D764" s="409"/>
+      <c r="E764" s="409"/>
+      <c r="F764" s="409"/>
+      <c r="G764" s="409"/>
+      <c r="H764" s="409"/>
+      <c r="I764" s="409"/>
+      <c r="J764" s="409"/>
+      <c r="K764" s="409"/>
+      <c r="L764" s="410"/>
       <c r="M764" s="24"/>
       <c r="N764" s="28"/>
       <c r="O764" s="387" t="s">
@@ -48817,9 +48820,6 @@
     <mergeCell ref="C113:F113"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="C173:F173"/>
-    <mergeCell ref="A397:L397"/>
-    <mergeCell ref="I401:K401"/>
-    <mergeCell ref="A749:L749"/>
     <mergeCell ref="H813:I813"/>
     <mergeCell ref="I783:K783"/>
     <mergeCell ref="C398:F398"/>
@@ -48841,7 +48841,20 @@
     <mergeCell ref="A593:L593"/>
     <mergeCell ref="C734:F734"/>
     <mergeCell ref="I601:J601"/>
-    <mergeCell ref="I405:J405"/>
+    <mergeCell ref="I602:J602"/>
+    <mergeCell ref="B409:K410"/>
+    <mergeCell ref="I528:J528"/>
+    <mergeCell ref="C534:F534"/>
+    <mergeCell ref="I632:J632"/>
+    <mergeCell ref="F537:G537"/>
+    <mergeCell ref="B667:K668"/>
+    <mergeCell ref="I697:J697"/>
+    <mergeCell ref="B693:C693"/>
+    <mergeCell ref="C688:F688"/>
+    <mergeCell ref="I665:J665"/>
+    <mergeCell ref="C691:E691"/>
+    <mergeCell ref="I695:J695"/>
+    <mergeCell ref="I696:J696"/>
     <mergeCell ref="F737:G737"/>
     <mergeCell ref="I768:K768"/>
     <mergeCell ref="F768:G768"/>
@@ -48851,8 +48864,7 @@
     <mergeCell ref="H765:I765"/>
     <mergeCell ref="C765:F765"/>
     <mergeCell ref="A624:L624"/>
-    <mergeCell ref="I602:J602"/>
-    <mergeCell ref="B409:K410"/>
+    <mergeCell ref="A749:L749"/>
     <mergeCell ref="I820:J820"/>
     <mergeCell ref="F816:G816"/>
     <mergeCell ref="C829:F829"/>
@@ -48877,18 +48889,6 @@
     <mergeCell ref="I772:J772"/>
     <mergeCell ref="I743:J743"/>
     <mergeCell ref="H564:I564"/>
-    <mergeCell ref="I528:J528"/>
-    <mergeCell ref="C534:F534"/>
-    <mergeCell ref="I632:J632"/>
-    <mergeCell ref="F537:G537"/>
-    <mergeCell ref="B667:K668"/>
-    <mergeCell ref="I697:J697"/>
-    <mergeCell ref="B693:C693"/>
-    <mergeCell ref="C688:F688"/>
-    <mergeCell ref="I665:J665"/>
-    <mergeCell ref="C691:E691"/>
-    <mergeCell ref="I695:J695"/>
-    <mergeCell ref="I696:J696"/>
     <mergeCell ref="F691:G691"/>
     <mergeCell ref="I691:K691"/>
     <mergeCell ref="H688:I688"/>
@@ -48954,6 +48954,13 @@
     <mergeCell ref="C128:F128"/>
     <mergeCell ref="I122:J122"/>
     <mergeCell ref="I106:J106"/>
+    <mergeCell ref="A277:L277"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="F417:G417"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="F356:G356"/>
+    <mergeCell ref="I360:J360"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="I679:J679"/>
     <mergeCell ref="B163:C163"/>
@@ -49026,10 +49033,6 @@
     <mergeCell ref="C813:F813"/>
     <mergeCell ref="B755:C755"/>
     <mergeCell ref="H829:I829"/>
-    <mergeCell ref="A277:L277"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="F417:G417"/>
     <mergeCell ref="I571:J571"/>
     <mergeCell ref="I447:K447"/>
     <mergeCell ref="A503:L503"/>
@@ -49040,16 +49043,16 @@
     <mergeCell ref="A367:L367"/>
     <mergeCell ref="I453:J453"/>
     <mergeCell ref="C444:F444"/>
-    <mergeCell ref="F296:G296"/>
     <mergeCell ref="I481:J481"/>
     <mergeCell ref="B479:C479"/>
     <mergeCell ref="I407:J407"/>
     <mergeCell ref="I376:J376"/>
-    <mergeCell ref="F356:G356"/>
-    <mergeCell ref="I360:J360"/>
     <mergeCell ref="I496:J496"/>
     <mergeCell ref="I467:J467"/>
     <mergeCell ref="B403:C403"/>
+    <mergeCell ref="I405:J405"/>
+    <mergeCell ref="A397:L397"/>
+    <mergeCell ref="I401:K401"/>
     <mergeCell ref="O717:R717"/>
     <mergeCell ref="T717:Y717"/>
     <mergeCell ref="I527:J527"/>
@@ -50124,10 +50127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69971A69-1AB5-4F7A-A4C2-73A1E09F711B}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50659,7 +50662,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="314" t="s">
         <v>213</v>
       </c>
@@ -50675,7 +50678,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="314" t="s">
         <v>215</v>
       </c>
@@ -50691,7 +50694,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="314" t="s">
         <v>216</v>
       </c>
@@ -50707,7 +50710,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="314" t="s">
         <v>162</v>
       </c>
@@ -50723,7 +50726,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="264" t="s">
         <v>194</v>
       </c>
@@ -50739,7 +50742,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="266" t="s">
         <v>184</v>
       </c>
@@ -50755,7 +50758,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="264" t="s">
         <v>185</v>
       </c>
@@ -50771,7 +50774,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="264" t="s">
         <v>186</v>
       </c>
@@ -50787,7 +50790,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="264" t="s">
         <v>173</v>
       </c>
@@ -50805,7 +50808,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="264" t="s">
         <v>170</v>
       </c>
@@ -50821,7 +50824,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="264" t="s">
         <v>219</v>
       </c>
@@ -50839,7 +50842,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="264" t="s">
         <v>220</v>
       </c>
@@ -50854,8 +50857,9 @@
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="264" t="s">
         <v>73</v>
       </c>
@@ -50870,8 +50874,9 @@
         <f t="shared" si="3"/>
         <v>25000</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="264" t="s">
         <v>221</v>
       </c>
@@ -50886,8 +50891,9 @@
         <f t="shared" si="3"/>
         <v>27000</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="264" t="s">
         <v>187</v>
       </c>
@@ -50902,8 +50908,9 @@
         <f t="shared" si="3"/>
         <v>27000</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="264" t="s">
         <v>215</v>
       </c>
@@ -50920,6 +50927,7 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="264" t="s">
